--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/Test_02/Inflexible Consumption.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/Test_02/Inflexible Consumption.xlsx
@@ -562,76 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001243124425126464</v>
+        <v>0.5211555346802802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003247616621066306</v>
+        <v>0.9439167019431006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003180078761444856</v>
+        <v>0.9716621332705724</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003446714418540295</v>
+        <v>1.09064445321234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003989853284862027</v>
+        <v>1.094396017252019</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003398595047821093</v>
+        <v>1.125066154272988</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003901084443842352</v>
+        <v>1.117938497109935</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002815224209362235</v>
+        <v>0.9749120191968673</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001466570049444363</v>
+        <v>0.457259371205464</v>
       </c>
       <c r="K2" t="n">
-        <v>4.366928039987941e-05</v>
+        <v>0.1638943016775967</v>
       </c>
       <c r="L2" t="n">
-        <v>6.404683954397875e-05</v>
+        <v>0.2340729599468078</v>
       </c>
       <c r="M2" t="n">
-        <v>5.485987047207809e-05</v>
+        <v>0.2030441288123045</v>
       </c>
       <c r="N2" t="n">
-        <v>5.97725924099452e-05</v>
+        <v>0.1790701560339048</v>
       </c>
       <c r="O2" t="n">
-        <v>5.468320838387369e-05</v>
+        <v>0.1778605762917496</v>
       </c>
       <c r="P2" t="n">
-        <v>5.547366494972488e-05</v>
+        <v>0.1961555783372573</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.933469290983499e-05</v>
+        <v>0.331650312307893</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00010257147456316</v>
+        <v>0.6515259995725514</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002328451595505329</v>
+        <v>0.6902257351509562</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0001873857104902016</v>
+        <v>0.6526633585687401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000192976219142094</v>
+        <v>0.5190355221309191</v>
       </c>
       <c r="V2" t="n">
-        <v>8.874140080309346e-05</v>
+        <v>0.3624927066447564</v>
       </c>
       <c r="W2" t="n">
-        <v>9.662847200365012e-05</v>
+        <v>0.4031430559126144</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0001195584964472279</v>
+        <v>0.4339593508321713</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.207317900326546e-05</v>
+        <v>0.3876185161899152</v>
       </c>
     </row>
     <row r="3">
@@ -641,76 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001974529178987391</v>
+        <v>0.4934721044168961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000455596628247615</v>
+        <v>0.8654799482508503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003634565475441465</v>
+        <v>1.157757205798621</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004866599483162918</v>
+        <v>1.324213683536051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004624903879399762</v>
+        <v>1.227160455693161</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003635108758123608</v>
+        <v>1.047215597473849</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000315875941533049</v>
+        <v>1.022482849167219</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002976343624300049</v>
+        <v>0.9532519457481442</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001221754587946673</v>
+        <v>0.4983709659459003</v>
       </c>
       <c r="K3" t="n">
-        <v>5.600798191491042e-05</v>
+        <v>0.233169335977758</v>
       </c>
       <c r="L3" t="n">
-        <v>6.455106024895741e-05</v>
+        <v>0.227866370564624</v>
       </c>
       <c r="M3" t="n">
-        <v>6.141237507008449e-05</v>
+        <v>0.1920571966685141</v>
       </c>
       <c r="N3" t="n">
-        <v>4.966287548341955e-05</v>
+        <v>0.2166948592102442</v>
       </c>
       <c r="O3" t="n">
-        <v>6.515992383889241e-05</v>
+        <v>0.2131538786712465</v>
       </c>
       <c r="P3" t="n">
-        <v>6.792413893635364e-05</v>
+        <v>0.1768468207259095</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.873070707636294e-05</v>
+        <v>0.2703949651618708</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0002710661588364964</v>
+        <v>0.6958209595386645</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003191852713102918</v>
+        <v>0.7650617292934085</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0002511876098609779</v>
+        <v>0.5284045202009874</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0001856037997590395</v>
+        <v>0.3679152817899193</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0002259158982052131</v>
+        <v>0.4511447343976894</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0001271745476879564</v>
+        <v>0.3746067940047152</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0001808756189335564</v>
+        <v>0.4818926603000795</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0001151367841590922</v>
+        <v>0.3911367177877249</v>
       </c>
     </row>
     <row r="4">
@@ -720,76 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001248720854477969</v>
+        <v>0.4625868562932348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002829389148647583</v>
+        <v>0.8314319080820934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004162310437380542</v>
+        <v>1.011950360523635</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003671672835247959</v>
+        <v>1.134514586304708</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005072098821931144</v>
+        <v>1.218713354321608</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005206130286142017</v>
+        <v>1.227382182204533</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000554719281283506</v>
+        <v>1.257758890614423</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004196390140579052</v>
+        <v>1.104950628159454</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002534210788210888</v>
+        <v>0.6136712022154025</v>
       </c>
       <c r="K4" t="n">
-        <v>6.607422650487504e-05</v>
+        <v>0.2320344776629554</v>
       </c>
       <c r="L4" t="n">
-        <v>5.85817344092254e-05</v>
+        <v>0.2457950411270229</v>
       </c>
       <c r="M4" t="n">
-        <v>6.189224019425774e-05</v>
+        <v>0.2251593657069475</v>
       </c>
       <c r="N4" t="n">
-        <v>5.463959379603829e-05</v>
+        <v>0.1923075684731312</v>
       </c>
       <c r="O4" t="n">
-        <v>5.234182195709586e-05</v>
+        <v>0.2111774414141265</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0001052128769990107</v>
+        <v>0.263932656295842</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.501910507094934e-05</v>
+        <v>0.2491931322398912</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0002183137221636432</v>
+        <v>0.5872165440575029</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003584192524690068</v>
+        <v>0.7484289664102676</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0002931998099442739</v>
+        <v>0.8196500718484876</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001998333206203185</v>
+        <v>0.4630430649437892</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0002325209386154684</v>
+        <v>0.5537344620083009</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0001398204012541527</v>
+        <v>0.3951394105726312</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001410069395289243</v>
+        <v>0.4577244664068192</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0002525463770417863</v>
+        <v>0.6202160657005086</v>
       </c>
     </row>
     <row r="5">
@@ -799,76 +799,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000186109256108</v>
+        <v>0.5650753840570001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000265956008971</v>
+        <v>0.876734617793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00027449166072</v>
+        <v>1.06102609134</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003487540162099999</v>
+        <v>1.206046243792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005144718961299999</v>
+        <v>1.441834177533</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005028141</v>
+        <v>1.280483282538</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00040332115192</v>
+        <v>1.176149190413</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000374474844779</v>
+        <v>1.161643823364</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000206041046575</v>
+        <v>0.545525995546</v>
       </c>
       <c r="K5" t="n">
-        <v>7.148715899500002e-05</v>
+        <v>0.25655311107</v>
       </c>
       <c r="L5" t="n">
-        <v>6.557464321100001e-05</v>
+        <v>0.239366461916</v>
       </c>
       <c r="M5" t="n">
-        <v>6.4768885641e-05</v>
+        <v>0.247218938896</v>
       </c>
       <c r="N5" t="n">
-        <v>6.9820500254e-05</v>
+        <v>0.235353425642</v>
       </c>
       <c r="O5" t="n">
-        <v>6.0313512547e-05</v>
+        <v>0.188359107309</v>
       </c>
       <c r="P5" t="n">
-        <v>6.0166253917e-05</v>
+        <v>0.231865293458</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000113297665839</v>
+        <v>0.307721153672</v>
       </c>
       <c r="R5" t="n">
-        <v>0.000290320834314</v>
+        <v>0.7746126813169999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000261558011759</v>
+        <v>0.857320371929</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0002610203328900001</v>
+        <v>0.707612736158</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000135188752845</v>
+        <v>0.495531980375</v>
       </c>
       <c r="V5" t="n">
-        <v>0.000119944896902</v>
+        <v>0.414025481651</v>
       </c>
       <c r="W5" t="n">
-        <v>8.675971321200001e-05</v>
+        <v>0.4051444591370001</v>
       </c>
       <c r="X5" t="n">
-        <v>0.000163136469844</v>
+        <v>0.53246383957</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.000209626795973</v>
+        <v>0.5283972960719999</v>
       </c>
     </row>
     <row r="6">
@@ -878,76 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000156816500323</v>
+        <v>0.4438251558550001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000250224556048</v>
+        <v>0.6830828887529999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004826666760570001</v>
+        <v>1.113494139348</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000364528303229</v>
+        <v>0.95336618059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00037370518052</v>
+        <v>0.9846839149600001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000385856928108</v>
+        <v>1.034528123513</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000369613058376</v>
+        <v>0.945939505478</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000254864842392</v>
+        <v>0.762707443633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00016836936121</v>
+        <v>0.4960146476390001</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1104925072e-05</v>
+        <v>0.175311198674</v>
       </c>
       <c r="L6" t="n">
-        <v>7.648866687300001e-05</v>
+        <v>0.215077481778</v>
       </c>
       <c r="M6" t="n">
-        <v>5.8819349931e-05</v>
+        <v>0.188820886762</v>
       </c>
       <c r="N6" t="n">
-        <v>6.9533095327e-05</v>
+        <v>0.197676064392</v>
       </c>
       <c r="O6" t="n">
-        <v>7.0911675559e-05</v>
+        <v>0.199411440506</v>
       </c>
       <c r="P6" t="n">
-        <v>6.3333284037e-05</v>
+        <v>0.168883009205</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.393617567700001e-05</v>
+        <v>0.322656880881</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00018941745495</v>
+        <v>0.5637274750110002</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000252247188267</v>
+        <v>0.727336531513</v>
       </c>
       <c r="T6" t="n">
-        <v>0.000208769784668</v>
+        <v>0.8327368439709998</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00029188936989</v>
+        <v>0.8631043440969999</v>
       </c>
       <c r="V6" t="n">
-        <v>0.000162951435957</v>
+        <v>0.509789110746</v>
       </c>
       <c r="W6" t="n">
-        <v>0.000163282285401</v>
+        <v>0.562684631153</v>
       </c>
       <c r="X6" t="n">
-        <v>0.000121149942706</v>
+        <v>0.556499785384</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.000137471948609</v>
+        <v>0.375047887794</v>
       </c>
     </row>
     <row r="7">
@@ -957,76 +957,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000154038383088</v>
+        <v>0.482121661066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002760892633390001</v>
+        <v>1.123347779686</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00041523021897</v>
+        <v>1.149848281208</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00045619425666</v>
+        <v>1.24473770624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00051714707087</v>
+        <v>1.23660032223</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005338259846000001</v>
+        <v>1.219485847296</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00039260686267</v>
+        <v>1.106592348145</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002827562893800001</v>
+        <v>0.945268286</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00019149886631</v>
+        <v>0.5045527301730001</v>
       </c>
       <c r="K7" t="n">
-        <v>8.2197368447e-05</v>
+        <v>0.186083101758</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000111353243386</v>
+        <v>0.228097760931</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00016387877653</v>
+        <v>0.283958308487</v>
       </c>
       <c r="N7" t="n">
-        <v>0.000143472774203</v>
+        <v>0.2684181103080001</v>
       </c>
       <c r="O7" t="n">
-        <v>6.657808001099999e-05</v>
+        <v>0.188086642514</v>
       </c>
       <c r="P7" t="n">
-        <v>7.4792459639e-05</v>
+        <v>0.268750290895</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000127510461729</v>
+        <v>0.326415430466</v>
       </c>
       <c r="R7" t="n">
-        <v>0.000198584764673</v>
+        <v>0.6493410881719998</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000272803603739</v>
+        <v>0.817442525627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.000217127187665</v>
+        <v>0.653438068824</v>
       </c>
       <c r="U7" t="n">
-        <v>0.000100916725572</v>
+        <v>0.35783934214</v>
       </c>
       <c r="V7" t="n">
-        <v>7.6027695474e-05</v>
+        <v>0.3258558926470001</v>
       </c>
       <c r="W7" t="n">
-        <v>0.000126820906445</v>
+        <v>0.5293173663180001</v>
       </c>
       <c r="X7" t="n">
-        <v>9.000791564400001e-05</v>
+        <v>0.378623633089</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001051808627</v>
+        <v>0.416590512603</v>
       </c>
     </row>
     <row r="8">
@@ -1036,76 +1036,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000103523392923</v>
+        <v>0.4093893478650001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000303602033344</v>
+        <v>0.965929283541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000365374496129</v>
+        <v>1.072016166919</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00042728173783</v>
+        <v>1.567780511401</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004016943391770001</v>
+        <v>1.244137647834</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003310058337220001</v>
+        <v>1.095251432368</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00039306887791</v>
+        <v>1.211712961549</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003137526918869999</v>
+        <v>0.9741106921199999</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000231860555571</v>
+        <v>0.6189288929049999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000119022571789</v>
+        <v>0.252126554402</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000130967637971</v>
+        <v>0.280106649024</v>
       </c>
       <c r="M8" t="n">
-        <v>7.712492421800001e-05</v>
+        <v>0.203041827514</v>
       </c>
       <c r="N8" t="n">
-        <v>7.1037314255e-05</v>
+        <v>0.199657718739</v>
       </c>
       <c r="O8" t="n">
-        <v>7.4897732796e-05</v>
+        <v>0.213191220827</v>
       </c>
       <c r="P8" t="n">
-        <v>0.000135180163619</v>
+        <v>0.293055845709</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.000156629067663</v>
+        <v>0.39591079846</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00019290375851</v>
+        <v>0.726254213075</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000182338555625</v>
+        <v>0.8203757249210001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.000177538267353</v>
+        <v>0.749539719028</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00010416937302</v>
+        <v>0.4151028894380001</v>
       </c>
       <c r="V8" t="n">
-        <v>0.000115230061042</v>
+        <v>0.370741950708</v>
       </c>
       <c r="W8" t="n">
-        <v>9.307826377900002e-05</v>
+        <v>0.31727258602</v>
       </c>
       <c r="X8" t="n">
-        <v>8.8275408308e-05</v>
+        <v>0.3041865966830001</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.318089355200001e-05</v>
+        <v>0.2807545751159999</v>
       </c>
     </row>
     <row r="9">
@@ -1115,76 +1115,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000206137170124</v>
+        <v>0.6325551480610001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000391911577644</v>
+        <v>0.917572083326</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000578148314009</v>
+        <v>1.33195201963</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0006348282058799999</v>
+        <v>1.331611362831</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004765008908</v>
+        <v>1.383421477127</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004035905434</v>
+        <v>1.257254504915</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004551182009299999</v>
+        <v>1.295280668021</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00034043119943</v>
+        <v>0.8884571278329999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000181066265424</v>
+        <v>0.544082801362</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000100955838135</v>
+        <v>0.249845105951</v>
       </c>
       <c r="L9" t="n">
-        <v>7.886664895100001e-05</v>
+        <v>0.354036352817</v>
       </c>
       <c r="M9" t="n">
-        <v>6.6750986577e-05</v>
+        <v>0.233532373405</v>
       </c>
       <c r="N9" t="n">
-        <v>5.863959015099999e-05</v>
+        <v>0.219761718942</v>
       </c>
       <c r="O9" t="n">
-        <v>6.4387263517e-05</v>
+        <v>0.203329353934</v>
       </c>
       <c r="P9" t="n">
-        <v>6.5833637705e-05</v>
+        <v>0.202715043055</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000147763059833</v>
+        <v>0.3280224146619999</v>
       </c>
       <c r="R9" t="n">
-        <v>0.000305373445583</v>
+        <v>0.638162243479</v>
       </c>
       <c r="S9" t="n">
-        <v>0.000395016457064</v>
+        <v>0.8893440336340001</v>
       </c>
       <c r="T9" t="n">
-        <v>0.000169564628871</v>
+        <v>0.582447922262</v>
       </c>
       <c r="U9" t="n">
-        <v>0.000162629803282</v>
+        <v>0.521690848884</v>
       </c>
       <c r="V9" t="n">
-        <v>0.000150227097845</v>
+        <v>0.4661117390940001</v>
       </c>
       <c r="W9" t="n">
-        <v>0.000213153712997</v>
+        <v>0.594979518873</v>
       </c>
       <c r="X9" t="n">
-        <v>0.000287826747572</v>
+        <v>0.5577605580220001</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.000266767287371</v>
+        <v>0.577649429803</v>
       </c>
     </row>
     <row r="10">
@@ -1194,76 +1194,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000146808898908</v>
+        <v>0.433557116324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000394028041382</v>
+        <v>0.888221268291</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000460348726249</v>
+        <v>1.429205676055</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000407831642804</v>
+        <v>1.276795624043</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000342874684624</v>
+        <v>1.179150208826</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003239030227089999</v>
+        <v>1.140753427928</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000376814559514</v>
+        <v>1.280111905998</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000370547302891</v>
+        <v>1.02835683462</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000172622724173</v>
+        <v>0.663645734038</v>
       </c>
       <c r="K10" t="n">
-        <v>8.815667848000001e-05</v>
+        <v>0.226300055764</v>
       </c>
       <c r="L10" t="n">
-        <v>6.304129276000001e-05</v>
+        <v>0.190849296755</v>
       </c>
       <c r="M10" t="n">
-        <v>5.330414665099999e-05</v>
+        <v>0.184953956005</v>
       </c>
       <c r="N10" t="n">
-        <v>6.587167932000001e-05</v>
+        <v>0.213731804368</v>
       </c>
       <c r="O10" t="n">
-        <v>6.580525027300001e-05</v>
+        <v>0.198391181906</v>
       </c>
       <c r="P10" t="n">
-        <v>5.1451056861e-05</v>
+        <v>0.194039280898</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.000100083916606</v>
+        <v>0.3599535499</v>
       </c>
       <c r="R10" t="n">
-        <v>0.000161133450612</v>
+        <v>0.607316720011</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000203489895142</v>
+        <v>0.623912908802</v>
       </c>
       <c r="T10" t="n">
-        <v>0.000269593402623</v>
+        <v>0.7680355466109999</v>
       </c>
       <c r="U10" t="n">
-        <v>0.000141569099593</v>
+        <v>0.555550868274</v>
       </c>
       <c r="V10" t="n">
-        <v>0.000158577636716</v>
+        <v>0.4535221869580001</v>
       </c>
       <c r="W10" t="n">
-        <v>0.000110253099945</v>
+        <v>0.426538375093</v>
       </c>
       <c r="X10" t="n">
-        <v>0.000142910797508</v>
+        <v>0.504757578568</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.000119187843403</v>
+        <v>0.4205781050910001</v>
       </c>
     </row>
   </sheetData>

--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/Test_02/Inflexible Consumption.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/Test_02/Inflexible Consumption.xlsx
@@ -562,76 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5211555346802802</v>
+        <v>4.143748083754879e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9439167019431006</v>
+        <v>1.082538873688768e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9716621332705724</v>
+        <v>1.060026253814952e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>1.09064445321234</v>
+        <v>1.148904806180098e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>1.094396017252019</v>
+        <v>1.329951094954009e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>1.125066154272988</v>
+        <v>1.132865015940364e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>1.117938497109935</v>
+        <v>1.300361481280784e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9749120191968673</v>
+        <v>9.384080697874117e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.457259371205464</v>
+        <v>4.88856683148121e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638943016775967</v>
+        <v>1.45564267999598e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2340729599468078</v>
+        <v>2.134894651465959e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2030441288123045</v>
+        <v>1.82866234906927e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1790701560339048</v>
+        <v>1.992419746998173e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1778605762917496</v>
+        <v>1.82277361279579e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1961555783372573</v>
+        <v>1.849122164990829e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.331650312307893</v>
+        <v>2.644489763661166e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6515259995725514</v>
+        <v>3.419049152105333e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6902257351509562</v>
+        <v>7.761505318351096e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6526633585687401</v>
+        <v>6.246190349673388e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5190355221309191</v>
+        <v>6.432540638069799e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3624927066447564</v>
+        <v>2.958046693436449e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4031430559126144</v>
+        <v>3.220949066788338e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4339593508321713</v>
+        <v>3.985283214907596e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3876185161899152</v>
+        <v>2.735772633442182e-06</v>
       </c>
     </row>
     <row r="3">
@@ -641,76 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4934721044168961</v>
+        <v>6.581763929957971e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8654799482508503</v>
+        <v>1.51865542749205e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>1.157757205798621</v>
+        <v>1.211521825147155e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.324213683536051</v>
+        <v>1.622199827720973e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>1.227160455693161</v>
+        <v>1.541634626466587e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>1.047215597473849</v>
+        <v>1.211702919374536e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.022482849167219</v>
+        <v>1.052919805110163e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9532519457481442</v>
+        <v>9.921145414333495e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4983709659459003</v>
+        <v>4.072515293155577e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.233169335977758</v>
+        <v>1.866932730497014e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.227866370564624</v>
+        <v>2.15170200829858e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1920571966685141</v>
+        <v>2.047079169002816e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2166948592102442</v>
+        <v>1.655429182780652e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2131538786712465</v>
+        <v>2.171997461296414e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1768468207259095</v>
+        <v>2.264137964545122e-06</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2703949651618708</v>
+        <v>2.957690235878765e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6958209595386645</v>
+        <v>9.035538627883212e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7650617292934085</v>
+        <v>1.06395090436764e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5284045202009874</v>
+        <v>8.372920328699264e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3679152817899193</v>
+        <v>6.186793325301316e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4511447343976894</v>
+        <v>7.53052994017377e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3746067940047152</v>
+        <v>4.239151589598546e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4818926603000795</v>
+        <v>6.029187297785215e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3911367177877249</v>
+        <v>3.837892805303074e-06</v>
       </c>
     </row>
     <row r="4">
@@ -720,76 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4625868562932348</v>
+        <v>4.162402848259898e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8314319080820934</v>
+        <v>9.431297162158609e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>1.011950360523635</v>
+        <v>1.387436812460181e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>1.134514586304708</v>
+        <v>1.223890945082653e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1.218713354321608</v>
+        <v>1.690699607310381e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>1.227382182204533</v>
+        <v>1.735376762047339e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.257758890614423</v>
+        <v>1.84906427094502e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.104950628159454</v>
+        <v>1.398796713526351e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6136712022154025</v>
+        <v>8.447369294036293e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2320344776629554</v>
+        <v>2.202474216829168e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2457950411270229</v>
+        <v>1.952724480307513e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2251593657069475</v>
+        <v>2.063074673141925e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1923075684731312</v>
+        <v>1.821319793201276e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2111774414141265</v>
+        <v>1.744727398569862e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.263932656295842</v>
+        <v>3.507095899967024e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2491931322398912</v>
+        <v>2.833970169031645e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5872165440575029</v>
+        <v>7.277124072121439e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7484289664102676</v>
+        <v>1.194730841563356e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8196500718484876</v>
+        <v>9.773326998142464e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4630430649437892</v>
+        <v>6.661110687343951e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5537344620083009</v>
+        <v>7.750697953848947e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3951394105726312</v>
+        <v>4.66068004180509e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4577244664068192</v>
+        <v>4.70023131763081e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6202160657005086</v>
+        <v>8.418212568059542e-06</v>
       </c>
     </row>
     <row r="5">
@@ -799,76 +799,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5650753840570001</v>
+        <v>6.203641870266667e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.876734617793</v>
+        <v>8.865200299033335e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06102609134</v>
+        <v>9.149722023999999e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>1.206046243792</v>
+        <v>1.162513387366667e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>1.441834177533</v>
+        <v>1.714906320433333e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>1.280483282538</v>
+        <v>1.676047e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.176149190413</v>
+        <v>1.344403839733333e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.161643823364</v>
+        <v>1.248249482596667e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.545525995546</v>
+        <v>6.868034885833333e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.25655311107</v>
+        <v>2.382905299833333e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.239366461916</v>
+        <v>2.185821440366667e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.247218938896</v>
+        <v>2.1589628547e-06</v>
       </c>
       <c r="N5" t="n">
-        <v>0.235353425642</v>
+        <v>2.327350008466667e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>0.188359107309</v>
+        <v>2.010450418233333e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.231865293458</v>
+        <v>2.005541797233333e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.307721153672</v>
+        <v>3.7765888613e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7746126813169999</v>
+        <v>9.677361143800002e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.857320371929</v>
+        <v>8.718600391966668e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>0.707612736158</v>
+        <v>8.700677763000001e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>0.495531980375</v>
+        <v>4.5062917615e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.414025481651</v>
+        <v>3.998163230066667e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4051444591370001</v>
+        <v>2.8919904404e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.53246383957</v>
+        <v>5.437882328133333e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5283972960719999</v>
+        <v>6.987559865766666e-06</v>
       </c>
     </row>
     <row r="6">
@@ -878,76 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4438251558550001</v>
+        <v>5.227216677433334e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6830828887529999</v>
+        <v>8.340818534933333e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>1.113494139348</v>
+        <v>1.60888892019e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.95336618059</v>
+        <v>1.215094344096667e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9846839149600001</v>
+        <v>1.245683935066667e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>1.034528123513</v>
+        <v>1.28618976036e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.945939505478</v>
+        <v>1.23204352792e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.762707443633</v>
+        <v>8.495494746400001e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4960146476390001</v>
+        <v>5.612312040333334e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.175311198674</v>
+        <v>1.7034975024e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.215077481778</v>
+        <v>2.5496222291e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>0.188820886762</v>
+        <v>1.9606449977e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>0.197676064392</v>
+        <v>2.317769844233333e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.199411440506</v>
+        <v>2.363722518633334e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>0.168883009205</v>
+        <v>2.1111094679e-06</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.322656880881</v>
+        <v>3.1312058559e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5637274750110002</v>
+        <v>6.313915165000001e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>0.727336531513</v>
+        <v>8.408239608900002e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8327368439709998</v>
+        <v>6.958992822266667e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8631043440969999</v>
+        <v>9.729645663e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>0.509789110746</v>
+        <v>5.4317145319e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>0.562684631153</v>
+        <v>5.4427428467e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.556499785384</v>
+        <v>4.038331423533334e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.375047887794</v>
+        <v>4.582398286966667e-06</v>
       </c>
     </row>
     <row r="7">
@@ -957,76 +957,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.482121661066</v>
+        <v>5.1346127696e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.123347779686</v>
+        <v>9.202975444633333e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>1.149848281208</v>
+        <v>1.3841007299e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>1.24473770624</v>
+        <v>1.5206475222e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.23660032223</v>
+        <v>1.723823569566667e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.219485847296</v>
+        <v>1.779419948666667e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.106592348145</v>
+        <v>1.308689542233334e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.945268286</v>
+        <v>9.425209646e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5045527301730001</v>
+        <v>6.383295543666666e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.186083101758</v>
+        <v>2.739912281566667e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.228097760931</v>
+        <v>3.711774779533333e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>0.283958308487</v>
+        <v>5.462625884333332e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2684181103080001</v>
+        <v>4.782425806766667e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.188086642514</v>
+        <v>2.2192693337e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.268750290895</v>
+        <v>2.493081987966666e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.326415430466</v>
+        <v>4.2503487243e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6493410881719998</v>
+        <v>6.619492155766667e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>0.817442525627</v>
+        <v>9.093453457966666e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>0.653438068824</v>
+        <v>7.237572922166667e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>0.35783934214</v>
+        <v>3.3638908524e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3258558926470001</v>
+        <v>2.5342565158e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5293173663180001</v>
+        <v>4.227363548166667e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>0.378623633089</v>
+        <v>3.0002638548e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.416590512603</v>
+        <v>3.506028756666666e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1036,76 +1036,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4093893478650001</v>
+        <v>3.450779764100001e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0.965929283541</v>
+        <v>1.012006777813333e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>1.072016166919</v>
+        <v>1.217914987096667e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>1.567780511401</v>
+        <v>1.424272459433333e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>1.244137647834</v>
+        <v>1.33898113059e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>1.095251432368</v>
+        <v>1.103352779073333e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.211712961549</v>
+        <v>1.310229593033333e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9741106921199999</v>
+        <v>1.04584230629e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6189288929049999</v>
+        <v>7.728685185700002e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.252126554402</v>
+        <v>3.967419059633333e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.280106649024</v>
+        <v>4.365587932366666e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>0.203041827514</v>
+        <v>2.570830807266667e-06</v>
       </c>
       <c r="N8" t="n">
-        <v>0.199657718739</v>
+        <v>2.367910475166667e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.213191220827</v>
+        <v>2.4965910932e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.293055845709</v>
+        <v>4.506005453966668e-06</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.39591079846</v>
+        <v>5.2209689221e-06</v>
       </c>
       <c r="R8" t="n">
-        <v>0.726254213075</v>
+        <v>6.430125283666667e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8203757249210001</v>
+        <v>6.077951854166667e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>0.749539719028</v>
+        <v>5.9179422451e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4151028894380001</v>
+        <v>3.472312433999999e-06</v>
       </c>
       <c r="V8" t="n">
-        <v>0.370741950708</v>
+        <v>3.841002034733334e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>0.31727258602</v>
+        <v>3.102608792633334e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3041865966830001</v>
+        <v>2.942513610266667e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2807545751159999</v>
+        <v>2.772696451733333e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1115,76 +1115,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6325551480610001</v>
+        <v>6.871239004133334e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.917572083326</v>
+        <v>1.30637192548e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.33195201963</v>
+        <v>1.927161046696667e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>1.331611362831</v>
+        <v>2.1160940196e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>1.383421477127</v>
+        <v>1.588336302666667e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>1.257254504915</v>
+        <v>1.345301811333333e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.295280668021</v>
+        <v>1.517060669766667e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8884571278329999</v>
+        <v>1.134770664766667e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.544082801362</v>
+        <v>6.035542180800001e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.249845105951</v>
+        <v>3.3651946045e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.354036352817</v>
+        <v>2.628888298366667e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>0.233532373405</v>
+        <v>2.2250328859e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>0.219761718942</v>
+        <v>1.954653005033333e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.203329353934</v>
+        <v>2.146242117233333e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.202715043055</v>
+        <v>2.194454590166667e-06</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3280224146619999</v>
+        <v>4.925435327766667e-06</v>
       </c>
       <c r="R9" t="n">
-        <v>0.638162243479</v>
+        <v>1.017911485276667e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8893440336340001</v>
+        <v>1.316721523546667e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>0.582447922262</v>
+        <v>5.6521542957e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>0.521690848884</v>
+        <v>5.420993442733334e-06</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4661117390940001</v>
+        <v>5.007569928166667e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>0.594979518873</v>
+        <v>7.105123766566668e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5577605580220001</v>
+        <v>9.594224919066666e-06</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.577649429803</v>
+        <v>8.892242912366668e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1194,76 +1194,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.433557116324</v>
+        <v>4.8936299636e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.888221268291</v>
+        <v>1.313426804606667e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1.429205676055</v>
+        <v>1.534495754163333e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>1.276795624043</v>
+        <v>1.359438809346667e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>1.179150208826</v>
+        <v>1.142915615413333e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>1.140753427928</v>
+        <v>1.079676742363333e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>1.280111905998</v>
+        <v>1.256048531713333e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>1.02835683462</v>
+        <v>1.235157676303333e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.663645734038</v>
+        <v>5.754090805766667e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.226300055764</v>
+        <v>2.938555949333334e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.190849296755</v>
+        <v>2.101376425333334e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>0.184953956005</v>
+        <v>1.776804888366667e-06</v>
       </c>
       <c r="N10" t="n">
-        <v>0.213731804368</v>
+        <v>2.195722644000001e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>0.198391181906</v>
+        <v>2.193508342433334e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.194039280898</v>
+        <v>1.7150352287e-06</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3599535499</v>
+        <v>3.336130553533333e-06</v>
       </c>
       <c r="R10" t="n">
-        <v>0.607316720011</v>
+        <v>5.371115020400001e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>0.623912908802</v>
+        <v>6.782996504733334e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7680355466109999</v>
+        <v>8.986446754099999e-06</v>
       </c>
       <c r="U10" t="n">
-        <v>0.555550868274</v>
+        <v>4.718969986433334e-06</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4535221869580001</v>
+        <v>5.285921223866667e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>0.426538375093</v>
+        <v>3.6751033315e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>0.504757578568</v>
+        <v>4.763693250266667e-06</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4205781050910001</v>
+        <v>3.972928113433335e-06</v>
       </c>
     </row>
   </sheetData>
